--- a/Data Files/Input Validation/05. detail1/03. Typecode 5/Auto_Detail1_TC5_C9.xlsx
+++ b/Data Files/Input Validation/05. detail1/03. Typecode 5/Auto_Detail1_TC5_C9.xlsx
@@ -154,7 +154,7 @@
     <t xml:space="preserve">formType</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -369,7 +369,7 @@
   <dimension ref="A1:AW2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data Files/Input Validation/05. detail1/03. Typecode 5/Auto_Detail1_TC5_C9.xlsx
+++ b/Data Files/Input Validation/05. detail1/03. Typecode 5/Auto_Detail1_TC5_C9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1551336D-5124-49B7-ACE6-3C7C1B524B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A96BDC8-4244-4EAD-8334-ABAF96148E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,76 +165,76 @@
     <t>5</t>
   </si>
   <si>
-    <t>W-ER-GB1-47</t>
+    <t>2023-12-31</t>
+  </si>
+  <si>
+    <t>new_entry</t>
+  </si>
+  <si>
+    <t>88000</t>
+  </si>
+  <si>
+    <t>0105556078229</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1721000011382</t>
+  </si>
+  <si>
+    <t>สมหมาย</t>
+  </si>
+  <si>
+    <t>ดั่งใจหวัง</t>
+  </si>
+  <si>
+    <t>888/77</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>หมู่บ้านรื่นรนย์</t>
+  </si>
+  <si>
+    <t>ตำบลหนองใหญ่</t>
+  </si>
+  <si>
+    <t>อำเภอหนองใหญ่</t>
+  </si>
+  <si>
+    <t>จังหวัดนนทบุรี</t>
+  </si>
+  <si>
+    <t>10600</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>U0105556078229000</t>
+  </si>
+  <si>
+    <t>AS9</t>
+  </si>
+  <si>
+    <t>[|Limited|Test|Automation|0|O]</t>
+  </si>
+  <si>
+    <t>ti5asl0-adw</t>
   </si>
   <si>
     <t>2023-08-22</t>
   </si>
   <si>
-    <t>2023-12-31</t>
-  </si>
-  <si>
-    <t>new_entry</t>
-  </si>
-  <si>
-    <t>88000</t>
-  </si>
-  <si>
-    <t>0105556078229</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1721000011382</t>
-  </si>
-  <si>
-    <t>สมหมาย</t>
-  </si>
-  <si>
-    <t>ดั่งใจหวัง</t>
-  </si>
-  <si>
-    <t>888/77</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>หมู่บ้านรื่นรนย์</t>
-  </si>
-  <si>
-    <t>ตำบลหนองใหญ่</t>
-  </si>
-  <si>
-    <t>อำเภอหนองใหญ่</t>
-  </si>
-  <si>
-    <t>จังหวัดนนทบุรี</t>
-  </si>
-  <si>
-    <t>10600</t>
-  </si>
-  <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>[][ประชา][][][]</t>
-  </si>
-  <si>
-    <t>U0105556078229000</t>
-  </si>
-  <si>
-    <t>AS9</t>
-  </si>
-  <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -284,14 +284,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,8 +609,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN6" sqref="AN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,8 +618,8 @@
     <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
@@ -652,16 +651,15 @@
     <col min="35" max="35" width="8.77734375" style="1" customWidth="1"/>
     <col min="36" max="36" width="9" style="1" customWidth="1"/>
     <col min="37" max="37" width="10" style="1" customWidth="1"/>
-    <col min="38" max="38" width="12.77734375" style="1" customWidth="1"/>
-    <col min="39" max="39" width="14.44140625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="14.44140625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="12.77734375" style="1" customWidth="1"/>
     <col min="40" max="40" width="11.6640625" style="1" customWidth="1"/>
     <col min="41" max="41" width="17.21875" style="1" customWidth="1"/>
     <col min="42" max="42" width="18.44140625" style="1" customWidth="1"/>
     <col min="43" max="43" width="10.21875" style="1" customWidth="1"/>
     <col min="44" max="44" width="8.77734375" style="1" customWidth="1"/>
     <col min="45" max="49" width="2.6640625" style="1"/>
-    <col min="53" max="16383" width="2.6640625" style="1"/>
-    <col min="16384" max="16384" width="11.5546875" style="1" customWidth="1"/>
+    <col min="53" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.3">
@@ -675,10 +673,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -777,10 +775,10 @@
         <v>36</v>
       </c>
       <c r="AL1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="AN1" s="2" t="s">
         <v>39</v>
@@ -814,62 +812,62 @@
         <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -877,41 +875,40 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AH2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="AJ2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AM2" s="2"/>
       <c r="AN2" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AO2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AP2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="AR2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2"/>

--- a/Data Files/Input Validation/05. detail1/03. Typecode 5/Auto_Detail1_TC5_C9.xlsx
+++ b/Data Files/Input Validation/05. detail1/03. Typecode 5/Auto_Detail1_TC5_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A96BDC8-4244-4EAD-8334-ABAF96148E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9BEF76-D709-452D-8037-37F587F09BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
     <t>2023-08-22</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/05. detail1/03. Typecode 5/Auto_Detail1_TC5_C9.xlsx
+++ b/Data Files/Input Validation/05. detail1/03. Typecode 5/Auto_Detail1_TC5_C9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\05. detail1\03. Typecode 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9BEF76-D709-452D-8037-37F587F09BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C3154B-4DA4-4F95-AA95-443AF9EA1EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>creationDate</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -609,8 +612,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN6" sqref="AN6"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,11 +898,9 @@
       <c r="AM2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AN2" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="AN2" s="3"/>
       <c r="AO2" s="2" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>64</v>

--- a/Data Files/Input Validation/05. detail1/03. Typecode 5/Auto_Detail1_TC5_C9.xlsx
+++ b/Data Files/Input Validation/05. detail1/03. Typecode 5/Auto_Detail1_TC5_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\05. detail1\03. Typecode 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C3154B-4DA4-4F95-AA95-443AF9EA1EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E93E48A-15F1-4B8F-81A7-F8DA6C64E7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -234,10 +234,10 @@
     <t>2023-08-22</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -806,7 +806,7 @@
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>44</v>
@@ -900,7 +900,7 @@
       </c>
       <c r="AN2" s="3"/>
       <c r="AO2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>64</v>

--- a/Data Files/Input Validation/05. detail1/03. Typecode 5/Auto_Detail1_TC5_C9.xlsx
+++ b/Data Files/Input Validation/05. detail1/03. Typecode 5/Auto_Detail1_TC5_C9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E93E48A-15F1-4B8F-81A7-F8DA6C64E7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11D3209-D4BD-4D77-A4B7-A0B4AF61C252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -616,56 +616,55 @@
       <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="1" customWidth="1"/>
     <col min="21" max="21" width="22" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.44140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.88671875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.77734375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.7109375" style="1" customWidth="1"/>
+    <col min="34" max="35" width="8.7109375" style="1" customWidth="1"/>
     <col min="36" max="36" width="9" style="1" customWidth="1"/>
     <col min="37" max="37" width="10" style="1" customWidth="1"/>
-    <col min="38" max="38" width="14.44140625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="12.77734375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="11.6640625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="17.21875" style="1" customWidth="1"/>
-    <col min="42" max="42" width="18.44140625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="10.21875" style="1" customWidth="1"/>
-    <col min="44" max="44" width="8.77734375" style="1" customWidth="1"/>
-    <col min="45" max="49" width="2.6640625" style="1"/>
-    <col min="53" max="16384" width="2.6640625" style="1"/>
+    <col min="38" max="38" width="14.42578125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="12.7109375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="11.7109375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="17.28515625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="18.42578125" style="1" customWidth="1"/>
+    <col min="43" max="43" width="10.28515625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="8.7109375" style="1" customWidth="1"/>
+    <col min="45" max="49" width="2.7109375" style="1"/>
+    <col min="53" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -804,7 +803,7 @@
       <c r="AV1" s="2"/>
       <c r="AW1" s="2"/>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>

--- a/Data Files/Input Validation/05. detail1/03. Typecode 5/Auto_Detail1_TC5_C9.xlsx
+++ b/Data Files/Input Validation/05. detail1/03. Typecode 5/Auto_Detail1_TC5_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11D3209-D4BD-4D77-A4B7-A0B4AF61C252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AD1D6C-045D-4B58-8FF9-C358ADFD3BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/05. detail1/03. Typecode 5/Auto_Detail1_TC5_C9.xlsx
+++ b/Data Files/Input Validation/05. detail1/03. Typecode 5/Auto_Detail1_TC5_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AD1D6C-045D-4B58-8FF9-C358ADFD3BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7CD687-B68A-4612-80D2-3D983C224160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -313,9 +313,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -353,7 +353,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -459,7 +459,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -601,7 +601,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/05. detail1/03. Typecode 5/Auto_Detail1_TC5_C9.xlsx
+++ b/Data Files/Input Validation/05. detail1/03. Typecode 5/Auto_Detail1_TC5_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0B0C01-3B89-47A2-B1C6-66F74BF56244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1F5C85-4D04-46DC-A83D-5700AC643113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -225,9 +225,6 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>[|Limited|Test|Automation|0|O]</t>
-  </si>
-  <si>
     <t>ti5asl0-adw</t>
   </si>
   <si>
@@ -237,7 +234,10 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>[|Limited|Test|Automation||]</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -313,9 +313,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -353,7 +353,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -459,7 +459,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -601,7 +601,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -613,7 +613,7 @@
   <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,10 +814,10 @@
         <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>46</v>
@@ -895,11 +895,11 @@
         <v>51</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AN2" s="3"/>
       <c r="AO2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>64</v>
